--- a/Datasets/Wind Energy Generation.xlsx
+++ b/Datasets/Wind Energy Generation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/Downloads/Fintech Commodity Metal Forecasting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Documents\GitHub\Metal-Price-Prediction\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CA3A273-FE3B-A743-9302-E54A328DF1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16DF9F0-0663-4848-943A-743A5050A112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wind Energy Generation" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="4">
   <si>
     <t>Time</t>
   </si>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -872,14 +872,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="G161" sqref="G161"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -890,7 +892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>40179</v>
       </c>
@@ -901,7 +903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>40210</v>
       </c>
@@ -912,7 +914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>40238</v>
       </c>
@@ -923,7 +925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>40269</v>
       </c>
@@ -934,7 +936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>40299</v>
       </c>
@@ -945,7 +947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>40330</v>
       </c>
@@ -956,7 +958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>40360</v>
       </c>
@@ -967,7 +969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>40391</v>
       </c>
@@ -978,7 +980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>40422</v>
       </c>
@@ -989,7 +991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>40452</v>
       </c>
@@ -1000,7 +1002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>40483</v>
       </c>
@@ -1011,7 +1013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>40513</v>
       </c>
@@ -1022,7 +1024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>40544</v>
       </c>
@@ -1033,7 +1035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>40575</v>
       </c>
@@ -1044,7 +1046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>40603</v>
       </c>
@@ -1055,7 +1057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>40634</v>
       </c>
@@ -1066,7 +1068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>40664</v>
       </c>
@@ -1077,7 +1079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>40695</v>
       </c>
@@ -1088,7 +1090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>40725</v>
       </c>
@@ -1099,7 +1101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>40756</v>
       </c>
@@ -1110,7 +1112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>40787</v>
       </c>
@@ -1121,7 +1123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>40817</v>
       </c>
@@ -1132,7 +1134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>40848</v>
       </c>
@@ -1143,7 +1145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>40878</v>
       </c>
@@ -1154,7 +1156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>40909</v>
       </c>
@@ -1165,7 +1167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>40940</v>
       </c>
@@ -1176,7 +1178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>40969</v>
       </c>
@@ -1187,7 +1189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>41000</v>
       </c>
@@ -1198,7 +1200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>41030</v>
       </c>
@@ -1209,7 +1211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>41061</v>
       </c>
@@ -1220,7 +1222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>41091</v>
       </c>
@@ -1231,7 +1233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>41122</v>
       </c>
@@ -1242,7 +1244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>41153</v>
       </c>
@@ -1253,7 +1255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>41183</v>
       </c>
@@ -1264,7 +1266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>41214</v>
       </c>
@@ -1275,7 +1277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>41244</v>
       </c>
@@ -1286,7 +1288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>41275</v>
       </c>
@@ -1297,7 +1299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>41306</v>
       </c>
@@ -1308,7 +1310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>41334</v>
       </c>
@@ -1319,7 +1321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>41365</v>
       </c>
@@ -1330,7 +1332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41395</v>
       </c>
@@ -1341,7 +1343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41426</v>
       </c>
@@ -1352,7 +1354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>41456</v>
       </c>
@@ -1363,7 +1365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>41487</v>
       </c>
@@ -1374,7 +1376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>41518</v>
       </c>
@@ -1385,7 +1387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>41548</v>
       </c>
@@ -1396,7 +1398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>41579</v>
       </c>
@@ -1407,7 +1409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>41609</v>
       </c>
@@ -1418,7 +1420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>41640</v>
       </c>
@@ -1429,7 +1431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>41671</v>
       </c>
@@ -1440,7 +1442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>41699</v>
       </c>
@@ -1451,7 +1453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>41730</v>
       </c>
@@ -1462,7 +1464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>41760</v>
       </c>
@@ -1473,7 +1475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>41791</v>
       </c>
@@ -1484,7 +1486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>41821</v>
       </c>
@@ -1495,7 +1497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>41852</v>
       </c>
@@ -1506,7 +1508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>41883</v>
       </c>
@@ -1517,7 +1519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>41913</v>
       </c>
@@ -1528,7 +1530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>41944</v>
       </c>
@@ -1539,7 +1541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>41974</v>
       </c>
@@ -1550,7 +1552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>42005</v>
       </c>
@@ -1561,7 +1563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>42036</v>
       </c>
@@ -1572,7 +1574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>42064</v>
       </c>
@@ -1583,7 +1585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>42095</v>
       </c>
@@ -1594,7 +1596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>42125</v>
       </c>
@@ -1605,7 +1607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>42156</v>
       </c>
@@ -1616,7 +1618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>42186</v>
       </c>
@@ -1627,7 +1629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>42217</v>
       </c>
@@ -1638,7 +1640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>42248</v>
       </c>
@@ -1649,7 +1651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>42278</v>
       </c>
@@ -1660,7 +1662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>42309</v>
       </c>
@@ -1671,7 +1673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>42339</v>
       </c>
@@ -1682,905 +1684,982 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>42370</v>
       </c>
       <c r="B74">
-        <v>60958.835599999999</v>
+        <v>60958.826200000003</v>
       </c>
       <c r="C74" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>42401</v>
       </c>
       <c r="B75">
-        <v>62445.622000000003</v>
+        <v>62445.6129</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>42430</v>
       </c>
       <c r="B76">
-        <v>54115.462699999996</v>
+        <v>54115.455300000001</v>
       </c>
       <c r="C76" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>42461</v>
       </c>
       <c r="B77">
-        <v>50439.892599999999</v>
+        <v>50439.887199999997</v>
       </c>
       <c r="C77" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>42491</v>
       </c>
       <c r="B78">
-        <v>47472.602299999999</v>
+        <v>47472.596100000002</v>
       </c>
       <c r="C78" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>42522</v>
       </c>
       <c r="B79">
-        <v>38957.981899999999</v>
+        <v>38957.973299999998</v>
       </c>
       <c r="C79" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>42552</v>
       </c>
       <c r="B80">
-        <v>42479.374000000003</v>
+        <v>42479.364399999999</v>
       </c>
       <c r="C80" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>42583</v>
       </c>
       <c r="B81">
-        <v>39756.667999999998</v>
+        <v>39756.657500000001</v>
       </c>
       <c r="C81" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>42614</v>
       </c>
       <c r="B82">
-        <v>39598.324999999997</v>
+        <v>39598.317199999998</v>
       </c>
       <c r="C82" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>42644</v>
       </c>
       <c r="B83">
-        <v>48822.099000000002</v>
+        <v>48822.091500000002</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>42675</v>
       </c>
       <c r="B84">
-        <v>55661.671000000002</v>
+        <v>55661.662300000004</v>
       </c>
       <c r="C84" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>42705</v>
       </c>
       <c r="B85">
-        <v>61723.017999999996</v>
+        <v>61723.008300000001</v>
       </c>
       <c r="C85" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>42736</v>
       </c>
       <c r="B86">
-        <v>58732.612500000003</v>
+        <v>58721.563099999999</v>
       </c>
       <c r="C86" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>42767</v>
       </c>
       <c r="B87">
-        <v>63044.348100000003</v>
+        <v>63038.837200000002</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>42795</v>
       </c>
       <c r="B88">
-        <v>66900.851500000004</v>
+        <v>66891.355800000005</v>
       </c>
       <c r="C88" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>42826</v>
       </c>
       <c r="B89">
-        <v>59339.868999999999</v>
+        <v>59332.662499999999</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>42856</v>
       </c>
       <c r="B90">
-        <v>50709.843399999998</v>
+        <v>50703.398200000003</v>
       </c>
       <c r="C90" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>42887</v>
       </c>
       <c r="B91">
-        <v>48950.1872</v>
+        <v>48944.887799999997</v>
       </c>
       <c r="C91" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>42917</v>
       </c>
       <c r="B92">
-        <v>44631.135900000001</v>
+        <v>44626.658600000002</v>
       </c>
       <c r="C92" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>42948</v>
       </c>
       <c r="B93">
-        <v>41459.324200000003</v>
+        <v>41451.127500000002</v>
       </c>
       <c r="C93" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>42979</v>
       </c>
       <c r="B94">
-        <v>46399.270900000003</v>
+        <v>46407.631099999999</v>
       </c>
       <c r="C94" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43009</v>
       </c>
       <c r="B95">
-        <v>69039.026599999997</v>
+        <v>69055.734400000001</v>
       </c>
       <c r="C95" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43040</v>
       </c>
       <c r="B96">
-        <v>64419.040300000001</v>
+        <v>64438.415800000002</v>
       </c>
       <c r="C96" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43070</v>
       </c>
       <c r="B97">
-        <v>77779.408899999995</v>
+        <v>77800.749599999996</v>
       </c>
       <c r="C97" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43101</v>
       </c>
       <c r="B98">
-        <v>80875.741699999999</v>
+        <v>80890.547999999995</v>
       </c>
       <c r="C98" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43132</v>
       </c>
       <c r="B99">
-        <v>62814.601900000001</v>
+        <v>62824.842299999997</v>
       </c>
       <c r="C99" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43160</v>
       </c>
       <c r="B100">
-        <v>75430.905100000004</v>
+        <v>75442.258199999997</v>
       </c>
       <c r="C100" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43191</v>
       </c>
       <c r="B101">
-        <v>63890.021699999998</v>
+        <v>63897.682699999998</v>
       </c>
       <c r="C101" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>43221</v>
       </c>
       <c r="B102">
-        <v>53025.817900000002</v>
+        <v>53030.783100000001</v>
       </c>
       <c r="C102" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>43252</v>
       </c>
       <c r="B103">
-        <v>51294.923000000003</v>
+        <v>51299.618699999999</v>
       </c>
       <c r="C103" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>43282</v>
       </c>
       <c r="B104">
-        <v>39959.195399999997</v>
+        <v>39963.197999999997</v>
       </c>
       <c r="C104" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>43313</v>
       </c>
       <c r="B105">
-        <v>49977.384100000003</v>
+        <v>49982.876799999998</v>
       </c>
       <c r="C105" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>43344</v>
       </c>
       <c r="B106">
-        <v>52230.965199999999</v>
+        <v>52237.059399999998</v>
       </c>
       <c r="C106" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>43374</v>
       </c>
       <c r="B107">
-        <v>65647.360000000001</v>
+        <v>65655.482699999993</v>
       </c>
       <c r="C107" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>43405</v>
       </c>
       <c r="B108">
-        <v>67594.146999999997</v>
+        <v>67605.055500000002</v>
       </c>
       <c r="C108" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>43435</v>
       </c>
       <c r="B109">
-        <v>76682.784899999999</v>
+        <v>76696.806599999996</v>
       </c>
       <c r="C109" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>43466</v>
       </c>
       <c r="B110">
-        <v>78517.931700000001</v>
+        <v>78690.715400000001</v>
       </c>
       <c r="C110" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>43497</v>
       </c>
       <c r="B111">
-        <v>68427.103300000002</v>
+        <v>68538.923299999995</v>
       </c>
       <c r="C111" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>43525</v>
       </c>
       <c r="B112">
-        <v>84687.504700000005</v>
+        <v>84865.490999999995</v>
       </c>
       <c r="C112" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>43556</v>
       </c>
       <c r="B113">
-        <v>69938.292700000005</v>
+        <v>70090.008100000006</v>
       </c>
       <c r="C113" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>43586</v>
       </c>
       <c r="B114">
-        <v>62469.866199999997</v>
+        <v>62597.522400000002</v>
       </c>
       <c r="C114" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>43617</v>
       </c>
       <c r="B115">
-        <v>55124.236799999999</v>
+        <v>55242.197699999997</v>
       </c>
       <c r="C115" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>43647</v>
       </c>
       <c r="B116">
-        <v>53909.874000000003</v>
+        <v>54079.8341</v>
       </c>
       <c r="C116" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>43678</v>
       </c>
       <c r="B117">
-        <v>52472.432500000003</v>
+        <v>52600.515700000004</v>
       </c>
       <c r="C117" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>43709</v>
       </c>
       <c r="B118">
-        <v>64186.824399999998</v>
+        <v>64311.566099999996</v>
       </c>
       <c r="C118" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>43739</v>
       </c>
       <c r="B119">
-        <v>72519.487099999998</v>
+        <v>72635.893100000001</v>
       </c>
       <c r="C119" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>43770</v>
       </c>
       <c r="B120">
-        <v>74740.351800000004</v>
+        <v>74914.864300000001</v>
       </c>
       <c r="C120" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>43800</v>
       </c>
       <c r="B121">
-        <v>87925.708299999998</v>
+        <v>86294.3269</v>
       </c>
       <c r="C121" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>43831</v>
       </c>
       <c r="B122">
-        <v>90432.472399999999</v>
+        <v>90715.585600000006</v>
       </c>
       <c r="C122" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>43862</v>
       </c>
       <c r="B123">
-        <v>99573.231299999999</v>
+        <v>99774.743000000002</v>
       </c>
       <c r="C123" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>43891</v>
       </c>
       <c r="B124">
-        <v>88656.625499999995</v>
+        <v>88874.4084</v>
       </c>
       <c r="C124" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>43922</v>
       </c>
       <c r="B125">
-        <v>70015.518599999996</v>
+        <v>70242.609400000001</v>
       </c>
       <c r="C125" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>43952</v>
       </c>
       <c r="B126">
-        <v>66864.398499999996</v>
+        <v>67004.927500000005</v>
       </c>
       <c r="C126" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>43983</v>
       </c>
       <c r="B127">
-        <v>63515.093500000003</v>
+        <v>63622.239200000004</v>
       </c>
       <c r="C127" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44013</v>
       </c>
       <c r="B128">
-        <v>59375.499400000001</v>
+        <v>59682.640899999999</v>
       </c>
       <c r="C128" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44044</v>
       </c>
       <c r="B129">
-        <v>58169.7621</v>
+        <v>58443.4251</v>
       </c>
       <c r="C129" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44075</v>
       </c>
       <c r="B130">
-        <v>63192.783600000002</v>
+        <v>63431.408600000002</v>
       </c>
       <c r="C130" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44105</v>
       </c>
       <c r="B131">
-        <v>85266.871899999998</v>
+        <v>85365.215100000001</v>
       </c>
       <c r="C131" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44136</v>
       </c>
       <c r="B132">
-        <v>87097.6201</v>
+        <v>87369.609700000001</v>
       </c>
       <c r="C132" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44166</v>
       </c>
       <c r="B133">
-        <v>93212.632400000002</v>
+        <v>93478.441999999995</v>
       </c>
       <c r="C133" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44197</v>
       </c>
       <c r="B134">
-        <v>87522.278399999996</v>
+        <v>87609.041899999997</v>
       </c>
       <c r="C134" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44228</v>
       </c>
       <c r="B135">
-        <v>84180.891900000002</v>
+        <v>83870.891499999998</v>
       </c>
       <c r="C135" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44256</v>
       </c>
       <c r="B136">
-        <v>96501.227599999998</v>
+        <v>96631.638000000006</v>
       </c>
       <c r="C136" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44287</v>
       </c>
       <c r="B137">
-        <v>80757.993000000002</v>
+        <v>80873.743300000002</v>
       </c>
       <c r="C137" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44317</v>
       </c>
       <c r="B138">
-        <v>79572.360799999995</v>
+        <v>79735.566200000001</v>
       </c>
       <c r="C138" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44348</v>
       </c>
       <c r="B139">
-        <v>55984.929100000001</v>
+        <v>56127.526700000002</v>
       </c>
       <c r="C139" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44378</v>
       </c>
       <c r="B140">
-        <v>57668.131800000003</v>
+        <v>57789.648999999998</v>
       </c>
       <c r="C140" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44409</v>
       </c>
       <c r="B141">
-        <v>66392.401899999997</v>
+        <v>66553.592199999999</v>
       </c>
       <c r="C141" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44440</v>
       </c>
       <c r="B142">
-        <v>65480.8943</v>
+        <v>65651.259000000005</v>
       </c>
       <c r="C142" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44470</v>
       </c>
       <c r="B143">
-        <v>91050.327799999999</v>
+        <v>91187.635299999994</v>
       </c>
       <c r="C143" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44501</v>
       </c>
       <c r="B144">
-        <v>92266.957699999999</v>
+        <v>92390.792700000005</v>
       </c>
       <c r="C144" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44531</v>
       </c>
       <c r="B145">
-        <v>105333.651</v>
+        <v>105453.2072</v>
       </c>
       <c r="C145" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44562</v>
       </c>
       <c r="B146">
-        <v>108509.713</v>
+        <v>107744.3983</v>
       </c>
       <c r="C146" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44593</v>
       </c>
       <c r="B147">
-        <v>116378.83</v>
+        <v>115614.74129999999</v>
       </c>
       <c r="C147" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44621</v>
       </c>
       <c r="B148">
-        <v>98627.481599999999</v>
+        <v>98055.184099999999</v>
       </c>
       <c r="C148" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44652</v>
       </c>
       <c r="B149">
-        <v>101377.42</v>
+        <v>100495.685</v>
       </c>
       <c r="C149" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44682</v>
       </c>
       <c r="B150">
-        <v>87430.544599999994</v>
+        <v>87052.099700000006</v>
       </c>
       <c r="C150" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44713</v>
       </c>
       <c r="B151">
-        <v>73046.731499999994</v>
+        <v>72733.061900000001</v>
       </c>
       <c r="C151" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44743</v>
       </c>
       <c r="B152">
-        <v>73405.593999999997</v>
+        <v>73188.4041</v>
       </c>
       <c r="C152" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44774</v>
       </c>
       <c r="B153">
-        <v>61164.095399999998</v>
+        <v>60943.702499999999</v>
       </c>
       <c r="C153" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44805</v>
       </c>
       <c r="B154">
-        <v>70360.617800000007</v>
+        <v>70604.2785</v>
       </c>
       <c r="C154" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44835</v>
       </c>
       <c r="B155">
-        <v>92258.864199999996</v>
+        <v>92587.128599999996</v>
       </c>
       <c r="C155" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B156">
+        <v>107112.9672</v>
+      </c>
+      <c r="C156" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B157">
+        <v>102595.7939</v>
+      </c>
+      <c r="C157" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B158">
+        <v>118097.28079999999</v>
+      </c>
+      <c r="C158" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B159">
+        <v>103862.0558</v>
+      </c>
+      <c r="C159" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B160">
+        <v>113746.29640000001</v>
+      </c>
+      <c r="C160" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B161">
+        <v>94991.563500000004</v>
+      </c>
+      <c r="C161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>45047</v>
+      </c>
+      <c r="B162">
+        <v>80666.860400000005</v>
+      </c>
+      <c r="C162" t="s">
         <v>3</v>
       </c>
     </row>
